--- a/bip1271_01_data.xlsx
+++ b/bip1271_01_data.xlsx
@@ -2524,13 +2524,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:colOff>542923</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2843,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bip1271_01_data.xlsx
+++ b/bip1271_01_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>X</t>
   </si>
@@ -184,15 +184,15 @@
   </si>
   <si>
     <t>MAE variation</t>
+  </si>
+  <si>
+    <t>Error size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,14 +238,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2841,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3986,7 +3990,7 @@
         <v>15.5754</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -4017,21 +4021,24 @@
       <c r="J35">
         <v>-14.129286703514589</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3">
-        <f>(M34-N34)/N34</f>
-        <v>0.12053679712792387</v>
-      </c>
-      <c r="O35" s="3">
-        <f>(M34-O34)/O34</f>
-        <v>0.12125110600575575</v>
-      </c>
-      <c r="P35" s="3">
-        <f>(M34-P34)/P34</f>
-        <v>0.1211546412933215</v>
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="2">
+        <f>M34-M33</f>
+        <v>3.6494789999999995</v>
+      </c>
+      <c r="N35" s="2">
+        <f>N34-N33</f>
+        <v>3.5249670000000002</v>
+      </c>
+      <c r="O35" s="2">
+        <f>O34-O33</f>
+        <v>3.6058179999999993</v>
+      </c>
+      <c r="P35" s="2">
+        <f>P34-P33</f>
+        <v>3.613309000000001</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -4065,17 +4072,13 @@
       <c r="J36">
         <v>28.283641966836871</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3">
-        <f>($N$34-O34)/O34</f>
-        <v>6.3747025502665215E-4</v>
-      </c>
-      <c r="P36" s="3">
-        <f>($N$34-P34)/P34</f>
-        <v>5.5138230799848457E-4</v>
-      </c>
+      <c r="L36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4108,16 +4111,24 @@
       <c r="J37">
         <v>44.455277770153181</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3">
-        <f>($O$34-P34)/P34</f>
-        <v>-8.6033103483749057E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
+        <f>(M34-N34)/N34</f>
+        <v>0.12053679712792387</v>
+      </c>
+      <c r="O37" s="4">
+        <f>(M34-O34)/O34</f>
+        <v>0.12125110600575575</v>
+      </c>
+      <c r="P37" s="4">
+        <f>(M34-P34)/P34</f>
+        <v>0.1211546412933215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>19.99025</v>
       </c>
@@ -4130,20 +4141,21 @@
       <c r="F38">
         <v>18.391079999999999</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N38" s="3">
-        <f>($M$33-N33)/N33</f>
-        <v>0.14544563775119065</v>
-      </c>
-      <c r="O38" s="3">
-        <f>($M$33-O33)/O33</f>
-        <v>0.15413383185266477</v>
-      </c>
-      <c r="P38" s="3">
-        <f>($M$33-P33)/P33</f>
-        <v>0.15472729642334282</v>
+      <c r="L38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="4">
+        <f>(N34-M34)/M34</f>
+        <v>-0.10757058352467744</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4">
+        <f>(N34-O34)/O34</f>
+        <v>6.3747025502665215E-4</v>
+      </c>
+      <c r="P38" s="4">
+        <f>(N34-P34)/P34</f>
+        <v>5.5138230799848457E-4</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -4159,14 +4171,21 @@
       <c r="F39">
         <v>18.391079999999999</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="O39" s="3">
-        <f>($N$33-O33)/O33</f>
-        <v>7.584990343610991E-3</v>
-      </c>
-      <c r="P39" s="3">
-        <f>($N$33-P33)/P33</f>
-        <v>8.1030983629869074E-3</v>
+      <c r="L39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" s="4">
+        <f>(O34-M34)/M34</f>
+        <v>-0.10813911830837769</v>
+      </c>
+      <c r="N39" s="4">
+        <f>(O34-N34)/N34</f>
+        <v>-6.3706414558329879E-4</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4">
+        <f>(O34-P34)/P34</f>
+        <v>-8.6033103483749057E-5</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -4182,11 +4201,22 @@
       <c r="F40">
         <v>18.391079999999999</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="P40" s="3">
-        <f>($O$33-P33)/P33</f>
-        <v>5.1420775849313519E-4</v>
-      </c>
+      <c r="L40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" s="4">
+        <f>(P34-M34)/M34</f>
+        <v>-0.1080623821469999</v>
+      </c>
+      <c r="N40" s="4">
+        <f>(P34-N34)/N34</f>
+        <v>-5.5107845308913195E-4</v>
+      </c>
+      <c r="O40" s="4">
+        <f>(P34-O34)/O34</f>
+        <v>8.6040505815489668E-5</v>
+      </c>
+      <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
@@ -4201,6 +4231,13 @@
       <c r="F41">
         <v>18.391079999999999</v>
       </c>
+      <c r="L41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
@@ -4215,11 +4252,81 @@
       <c r="F42">
         <v>18.391079999999999</v>
       </c>
+      <c r="L42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="4">
+        <f>(M33-N33)/N33</f>
+        <v>0.14544563775119065</v>
+      </c>
+      <c r="O42" s="4">
+        <f>(M33-O33)/O33</f>
+        <v>0.15413383185266477</v>
+      </c>
+      <c r="P42" s="4">
+        <f>(M33-P33)/P33</f>
+        <v>0.15472729642334282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" s="4">
+        <f>(N33-M33)/M33</f>
+        <v>-0.12697733786540796</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="4">
+        <f>(N33-O33)/O33</f>
+        <v>7.584990343610991E-3</v>
+      </c>
+      <c r="P43" s="4">
+        <f>(N33-P33)/P33</f>
+        <v>8.1030983629869074E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M44" s="4">
+        <f>(O33-M33)/M33</f>
+        <v>-0.1335493576210677</v>
+      </c>
+      <c r="N44" s="4">
+        <f>(O33-N33)/N33</f>
+        <v>-7.5278913603350969E-3</v>
+      </c>
+      <c r="O44" s="3"/>
+      <c r="P44" s="4">
+        <f>(O33-P33)/P33</f>
+        <v>5.1420775849313519E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M45" s="4">
+        <f>(P33-M33)/M33</f>
+        <v>-0.13399466428358955</v>
+      </c>
+      <c r="N45" s="4">
+        <f>(P33-N33)/N33</f>
+        <v>-8.0379659343822688E-3</v>
+      </c>
+      <c r="O45" s="4">
+        <f>(P33-O33)/O33</f>
+        <v>-5.1394348476584161E-4</v>
+      </c>
+      <c r="P45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="L41:P41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/bip1271_01_data.xlsx
+++ b/bip1271_01_data.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -2847,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,4 +4332,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>